--- a/MOSES LEMAIYAN PLOT 2.xlsx
+++ b/MOSES LEMAIYAN PLOT 2.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11310" activeTab="2"/>
   </bookViews>
@@ -19,12 +14,13 @@
   <externalReferences>
     <externalReference r:id="rId4"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="56">
   <si>
     <t>MOSES LEMAYIAN</t>
   </si>
@@ -186,12 +182,18 @@
   </si>
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
+  <si>
+    <t>PAID ON 11/12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -382,7 +384,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -512,6 +514,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -578,9 +581,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -609,198 +609,28 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="29">
-          <cell r="E29">
-            <v>25800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="23">
-          <cell r="E23">
-            <v>30300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="23">
-          <cell r="E23">
-            <v>24300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="23">
-          <cell r="E23">
-            <v>27800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4">
-        <row r="23">
-          <cell r="E23">
-            <v>23800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5">
-        <row r="23">
-          <cell r="E23">
-            <v>23800</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="6">
-        <row r="23">
-          <cell r="E23">
-            <v>32300</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
       <sheetData sheetId="7">
-        <row r="23">
-          <cell r="E23">
-            <v>30300</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="H24">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="H26">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="H27">
-            <v>0</v>
-          </cell>
-        </row>
         <row r="28">
           <cell r="H28" t="str">
             <v>BL</v>
           </cell>
         </row>
-        <row r="29">
-          <cell r="H29">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="H30">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="H31">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="H32">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="H33">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="H34">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="H35">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="H36">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="H37">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="H38">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="H39">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="H40">
-            <v>0</v>
-          </cell>
-        </row>
       </sheetData>
-      <sheetData sheetId="8">
-        <row r="23">
-          <cell r="E23">
-            <v>32300</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="9">
-        <row r="23">
-          <cell r="E23">
-            <v>32100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="10">
-        <row r="23">
-          <cell r="E23">
-            <v>32100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="11">
-        <row r="23">
-          <cell r="E23">
-            <v>33100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12">
-        <row r="23">
-          <cell r="E23">
-            <v>34100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="13">
-        <row r="23">
-          <cell r="E23">
-            <v>34100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="14">
-        <row r="23">
-          <cell r="E23">
-            <v>34100</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="15">
-        <row r="23">
-          <cell r="E23">
-            <v>34100</v>
-          </cell>
-        </row>
-      </sheetData>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
+      <sheetData sheetId="13"/>
+      <sheetData sheetId="14"/>
+      <sheetData sheetId="15"/>
       <sheetData sheetId="16"/>
       <sheetData sheetId="17"/>
     </sheetDataSet>
@@ -851,7 +681,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -886,7 +716,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1097,7 +927,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -1559,15 +1389,15 @@
         <v>38000</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" ref="F23:H23" si="2">SUM(F6:F22)</f>
+        <f>SUM(F6:F22)</f>
         <v>38000</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="2"/>
+        <f>SUM(G6:G22)</f>
         <v>38000</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="2"/>
+        <f>SUM(H6:H22)</f>
         <v>0</v>
       </c>
     </row>
@@ -1586,30 +1416,30 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
@@ -1894,10 +1724,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="37"/>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="s">
         <v>25</v>
@@ -1910,15 +1740,15 @@
         <v>26</v>
       </c>
       <c r="B47" s="41"/>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="42"/>
     </row>
   </sheetData>
@@ -1947,8 +1777,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H47"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection sqref="A1:J47"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2457,15 +2287,15 @@
         <v>38000</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" ref="F23:H23" si="2">SUM(F6:F22)</f>
+        <f>SUM(F6:F22)</f>
         <v>38000</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="2"/>
+        <f>SUM(G6:G22)</f>
         <v>35500</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="2"/>
+        <f>SUM(H6:H22)</f>
         <v>2500</v>
       </c>
     </row>
@@ -2484,30 +2314,30 @@
       </c>
     </row>
     <row r="26" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:8" s="35" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
@@ -2790,10 +2620,10 @@
         <v>23</v>
       </c>
       <c r="B46" s="37"/>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="s">
         <v>25</v>
@@ -2806,15 +2636,15 @@
         <v>26</v>
       </c>
       <c r="B47" s="48"/>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="42"/>
     </row>
   </sheetData>
@@ -2840,10 +2670,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:J47"/>
+  <dimension ref="A2:L47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2954,10 +2784,12 @@
         <f t="shared" ref="F7:F22" si="0">C7+D7+E7</f>
         <v>6000</v>
       </c>
-      <c r="G7" s="15"/>
+      <c r="G7" s="15">
+        <v>6000</v>
+      </c>
       <c r="H7" s="16">
         <f t="shared" ref="H7:H19" si="1">F7-G7</f>
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2999,17 +2831,15 @@
         <f>'NOVEMBER 21'!H9:H25</f>
         <v>2500</v>
       </c>
-      <c r="E9" s="15">
-        <v>2500</v>
-      </c>
+      <c r="E9" s="15"/>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>5000</v>
+        <v>2500</v>
       </c>
       <c r="G9" s="15"/>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
-        <v>5000</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -3056,10 +2886,12 @@
         <f>C11+D11+E11</f>
         <v>2500</v>
       </c>
-      <c r="G11" s="15"/>
+      <c r="G11" s="15">
+        <v>2500</v>
+      </c>
       <c r="H11" s="16">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -3172,15 +3004,17 @@
         <f>'NOVEMBER 21'!H16:H32</f>
         <v>0</v>
       </c>
-      <c r="E16" s="15"/>
+      <c r="E16" s="15">
+        <v>2500</v>
+      </c>
       <c r="F16" s="15">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="G16" s="15"/>
       <c r="H16" s="16">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
@@ -3202,10 +3036,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G17" s="15"/>
+      <c r="G17" s="15">
+        <v>1550</v>
+      </c>
       <c r="H17" s="16">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>950</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -3250,10 +3086,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G19" s="15"/>
+      <c r="G19" s="15">
+        <v>2500</v>
+      </c>
       <c r="H19" s="16">
         <f t="shared" si="1"/>
-        <v>2500</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
@@ -3275,10 +3113,12 @@
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="G20" s="15"/>
+      <c r="G20" s="15">
+        <v>2000</v>
+      </c>
       <c r="H20" s="16">
         <f>F20-G20</f>
-        <v>2500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
@@ -3335,16 +3175,16 @@
         <v>38000</v>
       </c>
       <c r="F23" s="15">
-        <f t="shared" ref="F23:H23" si="2">SUM(F6:F22)</f>
+        <f>SUM(F6:F22)</f>
         <v>40500</v>
       </c>
       <c r="G23" s="15">
-        <f t="shared" si="2"/>
-        <v>8500</v>
+        <f>SUM(G6:G22)</f>
+        <v>23050</v>
       </c>
       <c r="H23" s="15">
-        <f t="shared" si="2"/>
-        <v>32000</v>
+        <f>SUM(H6:H22)</f>
+        <v>17450</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
@@ -3358,34 +3198,34 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="H25" s="26">
         <f>H14+H8+H20+H22</f>
-        <v>2500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="53" t="s">
+      <c r="A26" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="53"/>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-      <c r="F26" s="53"/>
-      <c r="G26" s="53"/>
-      <c r="H26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="54"/>
+      <c r="D26" s="54"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="54"/>
+      <c r="G26" s="54"/>
+      <c r="H26" s="54"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="54" t="s">
+      <c r="A27" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54" t="s">
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="54"/>
-      <c r="H27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+      <c r="H27" s="55"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
@@ -3415,7 +3255,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B29" s="28">
         <f>E23</f>
@@ -3424,11 +3264,11 @@
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="33" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="F29" s="28">
         <f>G23</f>
-        <v>8500</v>
+        <v>23050</v>
       </c>
       <c r="G29" s="24"/>
       <c r="H29" s="24"/>
@@ -3464,6 +3304,10 @@
       <c r="F31" s="28"/>
       <c r="G31" s="24"/>
       <c r="H31" s="24"/>
+      <c r="J31" s="53">
+        <f>B29-C33</f>
+        <v>34200</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
@@ -3477,7 +3321,7 @@
       <c r="G32" s="24"/>
       <c r="H32" s="24"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>18</v>
       </c>
@@ -3500,8 +3344,12 @@
         <v>3800</v>
       </c>
       <c r="H33" s="24"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J33" s="53">
+        <f>J31-J32</f>
+        <v>34200</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>19</v>
       </c>
@@ -3516,8 +3364,15 @@
       <c r="F34" s="30"/>
       <c r="G34" s="24"/>
       <c r="H34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J34">
+        <v>29900</v>
+      </c>
+      <c r="K34" s="53">
+        <f>J33+J34</f>
+        <v>64100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="44" t="s">
         <v>21</v>
       </c>
@@ -3534,8 +3389,12 @@
       </c>
       <c r="G35" s="31"/>
       <c r="H35" s="24"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J35" s="53">
+        <f>J33-J34</f>
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -3544,8 +3403,11 @@
       <c r="F36" s="17"/>
       <c r="G36" s="17"/>
       <c r="H36" s="24"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J36">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
       <c r="B37" s="29"/>
       <c r="C37" s="24"/>
@@ -3554,18 +3416,30 @@
       <c r="F37" s="29"/>
       <c r="G37" s="24"/>
       <c r="H37" s="24"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="45"/>
+      <c r="J37" s="53">
+        <f>J35-J36</f>
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="45" t="s">
+        <v>55</v>
+      </c>
       <c r="B38" s="24"/>
-      <c r="C38" s="31"/>
+      <c r="C38" s="31">
+        <v>29900</v>
+      </c>
       <c r="D38" s="24"/>
-      <c r="E38" s="45"/>
+      <c r="E38" s="45" t="s">
+        <v>55</v>
+      </c>
       <c r="F38" s="24"/>
-      <c r="G38" s="31"/>
+      <c r="G38" s="31">
+        <v>29900</v>
+      </c>
       <c r="H38" s="24"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
       <c r="B39" s="24"/>
       <c r="C39" s="31"/>
@@ -3575,7 +3449,7 @@
       <c r="G39" s="31"/>
       <c r="H39" s="24"/>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
       <c r="B40" s="24"/>
       <c r="C40" s="31"/>
@@ -3585,7 +3459,7 @@
       <c r="G40" s="31"/>
       <c r="H40" s="24"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
       <c r="B41" s="24"/>
       <c r="C41" s="31"/>
@@ -3594,8 +3468,12 @@
       <c r="F41" s="24"/>
       <c r="G41" s="31"/>
       <c r="H41" s="24"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f>15800+3000</f>
+        <v>18800</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
       <c r="B42" s="24"/>
       <c r="C42" s="31"/>
@@ -3605,7 +3483,7 @@
       <c r="G42" s="31"/>
       <c r="H42" s="24"/>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="45"/>
       <c r="B43" s="24"/>
       <c r="C43" s="31"/>
@@ -3615,7 +3493,7 @@
       <c r="G43" s="31"/>
       <c r="H43" s="24"/>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="45"/>
       <c r="B44" s="24"/>
       <c r="C44" s="31"/>
@@ -3625,7 +3503,7 @@
       <c r="G44" s="31"/>
       <c r="H44" s="24"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
         <v>22</v>
       </c>
@@ -3635,37 +3513,37 @@
       </c>
       <c r="C45" s="32">
         <f>SUM(C35:C44)</f>
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="D45" s="32">
         <f>B45-C45</f>
-        <v>34200</v>
+        <v>4300</v>
       </c>
       <c r="E45" s="27" t="s">
         <v>22</v>
       </c>
       <c r="F45" s="32">
         <f>F29+F30+F32-G33</f>
-        <v>7200</v>
+        <v>21750</v>
       </c>
       <c r="G45" s="32">
         <f>SUM(G35:G44)</f>
-        <v>0</v>
+        <v>29900</v>
       </c>
       <c r="H45" s="32">
         <f>F45-G45</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+        <v>-8150</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="36" t="s">
         <v>23</v>
       </c>
       <c r="B46" s="37"/>
-      <c r="C46" s="55" t="s">
+      <c r="C46" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="D46" s="55"/>
+      <c r="D46" s="56"/>
       <c r="E46" s="36"/>
       <c r="F46" s="36" t="s">
         <v>25</v>
@@ -3675,20 +3553,20 @@
       <c r="I46" s="39"/>
       <c r="J46" s="39"/>
     </row>
-    <row r="47" spans="1:10" ht="17.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A47" s="52" t="s">
         <v>26</v>
       </c>
       <c r="B47" s="51"/>
-      <c r="C47" s="56" t="s">
+      <c r="C47" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="D47" s="56"/>
-      <c r="E47" s="57" t="s">
+      <c r="D47" s="57"/>
+      <c r="E47" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="F47" s="57"/>
-      <c r="G47" s="57"/>
+      <c r="F47" s="58"/>
+      <c r="G47" s="58"/>
       <c r="H47" s="42"/>
       <c r="I47" s="43"/>
       <c r="J47" s="43"/>
